--- a/biology/Biologie cellulaire et moléculaire/Carol_Greider/Carol_Greider.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Carol_Greider/Carol_Greider.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carol Greider, née le 15 avril 1961 à San Diego, États-Unis, est une biologiste moléculaire américaine. Elle est professeur et directrice de la chaire Daniel Nathans de biologie moléculaire et de génétique à l'Université Johns-Hopkins. Elle est corécipiendaire du prix Nobel de physiologie ou médecine 2009 avec Elizabeth Blackburn et Jack Szostak[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carol Greider, née le 15 avril 1961 à San Diego, États-Unis, est une biologiste moléculaire américaine. Elle est professeur et directrice de la chaire Daniel Nathans de biologie moléculaire et de génétique à l'Université Johns-Hopkins. Elle est corécipiendaire du prix Nobel de physiologie ou médecine 2009 avec Elizabeth Blackburn et Jack Szostak.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Carol W. Greider est la fille de Kenneth Greider, un professeur de physique. Sa famille a ensuite déménagé à Davis, en Californie, où elle a passé plusieurs années de sa jeunesse. Elle est diplômée du College of Creative Studies de l'Université de Californie à Santa Barbara, avec une licence en biologie en 1983. Elle a eu son doctorat en biologie moléculaire en 1987 à l'Université de Californie à Berkeley, sous la direction d'Elizabeth Blackburn. Pendant son séjour à Berkeley, Greider a été codécouvreur de la télomérase, une enzyme clé dans la compréhension du cancer et de certaines anémies avec Blackburn.
 Carol Greider a ensuite complété ses travaux post-doctoraux et a occupé un poste de professeur au Cold Spring Harbor Laboratory, à Long Island, à New York. Elle est nommée professeur à l'Université Johns Hopkins en 1997, où elle exerce depuis.
@@ -543,9 +557,11 @@
           <t>Apports scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le laboratoire d'Elizabeth Blackburn, elle réalise en 1985 l'identification d'une enzyme, la télomérase, possédant la propriété de rallonger les télomères des chromosomes[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le laboratoire d'Elizabeth Blackburn, elle réalise en 1985 l'identification d'une enzyme, la télomérase, possédant la propriété de rallonger les télomères des chromosomes
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2003 : prix Richard Lounsbery de l'Académie des Sciences française et l'Académie nationale des Sciences américaine « pour ses études biochimiques et génétiques de la télomérase, l'enzyme qui conserve l'extrémité des chromosomes dans les cellules eucaryotes »[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2003 : prix Richard Lounsbery de l'Académie des Sciences française et l'Académie nationale des Sciences américaine « pour ses études biochimiques et génétiques de la télomérase, l'enzyme qui conserve l'extrémité des chromosomes dans les cellules eucaryotes »
 2006 : Prix Albert-Lasker pour la recherche médicale fondamentale
 2009 : Prix Paul-Ehrlich-et-Ludwig-Darmstaedter
 2009 : Prix Nobel de physiologie ou médecine
